--- a/Pin_Assign_ESP32.xlsx
+++ b/Pin_Assign_ESP32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\MicroCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9FF7EB-38F7-470A-8F92-31A807ACF2EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E200EC-DD73-4101-9A5C-276D221C01AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="330" windowWidth="21600" windowHeight="11385" xr2:uid="{062D5DD4-2BAB-489E-A9C8-3345B772B295}"/>
+    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{062D5DD4-2BAB-489E-A9C8-3345B772B295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -640,7 +640,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -752,8 +752,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="6" t="s">
-        <v>43</v>
+      <c r="A9" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -794,8 +794,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
+      <c r="A12" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>

--- a/Pin_Assign_ESP32.xlsx
+++ b/Pin_Assign_ESP32.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\MicroCar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E200EC-DD73-4101-9A5C-276D221C01AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B20CE8-C1EF-4E5B-B769-B88DEC8CF97C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{062D5DD4-2BAB-489E-A9C8-3345B772B295}"/>
+    <workbookView xWindow="-8745" yWindow="6195" windowWidth="25725" windowHeight="11385" xr2:uid="{062D5DD4-2BAB-489E-A9C8-3345B772B295}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>GND</t>
     <phoneticPr fontId="1"/>
@@ -189,27 +189,51 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SPI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Resv</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UART</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I2C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PWM</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>N/C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UART/USB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI/CS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI/SCK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI/MISO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPI/MOSI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UART/TX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UART/RX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2C/SDA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I2C/SCL</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -234,7 +258,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +307,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -298,7 +328,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +351,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -640,7 +676,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -664,12 +700,12 @@
         <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -677,13 +713,13 @@
       <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>42</v>
+      <c r="N3" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -692,12 +728,12 @@
         <v>27</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -706,12 +742,12 @@
         <v>28</v>
       </c>
       <c r="N5" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -719,13 +755,13 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>42</v>
+      <c r="N6" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
+      <c r="A7" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -734,12 +770,12 @@
         <v>30</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="6" t="s">
-        <v>43</v>
+      <c r="A8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -747,13 +783,13 @@
       <c r="M8" t="s">
         <v>31</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>37</v>
+      <c r="N8" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -761,13 +797,13 @@
       <c r="M9" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>37</v>
+      <c r="N9" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>38</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -775,13 +811,13 @@
       <c r="M10" t="s">
         <v>33</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>37</v>
+      <c r="N10" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -790,12 +826,12 @@
         <v>34</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>39</v>
+      <c r="A12" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -804,12 +840,12 @@
         <v>35</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -817,13 +853,13 @@
       <c r="M13" t="s">
         <v>24</v>
       </c>
-      <c r="N13" t="s">
-        <v>44</v>
+      <c r="N13" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -832,7 +868,7 @@
         <v>23</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
@@ -869,31 +905,31 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="F16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
